--- a/data/trans_dic/P17_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P17_R2-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.22557393253053</v>
+        <v>0.2289024244476449</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2225530921181185</v>
+        <v>0.2198641567631326</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1038384941170985</v>
+        <v>0.1043425926229963</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06320873928895986</v>
+        <v>0.06458514051116018</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3287934733235591</v>
+        <v>0.3274084209555309</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2942503753059947</v>
+        <v>0.2963012169254658</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1519148421367651</v>
+        <v>0.1515243320318894</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1270902485251466</v>
+        <v>0.1291888306700626</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2858402126905681</v>
+        <v>0.2880185639627079</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2694098375786059</v>
+        <v>0.26765575224776</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1365476849058136</v>
+        <v>0.1354747103951029</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.101785137745311</v>
+        <v>0.1024418399409813</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2957310068481487</v>
+        <v>0.2946695365171995</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2884988385466176</v>
+        <v>0.2902452295143595</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1578601733303966</v>
+        <v>0.155328768791113</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1192579862717502</v>
+        <v>0.1219090315474727</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3991127354527794</v>
+        <v>0.4002355810236717</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3647718704356808</v>
+        <v>0.3681191311311965</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2130769470547276</v>
+        <v>0.2116460138756479</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1794346140346919</v>
+        <v>0.1767457299904823</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3335815744696147</v>
+        <v>0.3380836742562378</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3166913187772961</v>
+        <v>0.3157266568856041</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1764145604075435</v>
+        <v>0.1755068003599544</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1386158157838893</v>
+        <v>0.1402733346669008</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.1999789797138883</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1784250624339169</v>
+        <v>0.1784250624339168</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1908272001841509</v>
+        <v>0.1940575224889677</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.222582703671517</v>
+        <v>0.2241676176798471</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1424923968063814</v>
+        <v>0.1417985711920566</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1279671910188204</v>
+        <v>0.1260100467011889</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2837957210391147</v>
+        <v>0.287340619807177</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2975522241185817</v>
+        <v>0.2971419784410924</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2064452937250078</v>
+        <v>0.2104094163710146</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1828921988799302</v>
+        <v>0.1804889968215789</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2439660674677828</v>
+        <v>0.2467750671979994</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2669955315689561</v>
+        <v>0.2696767723390254</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1829863618768287</v>
+        <v>0.1820546072740516</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1604384448423565</v>
+        <v>0.1629465947842654</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2492757104780931</v>
+        <v>0.2463067842314113</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2804794763691064</v>
+        <v>0.278405810686123</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1895886588565847</v>
+        <v>0.1904893009112687</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.179858161821565</v>
+        <v>0.184871240318453</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3464806997033119</v>
+        <v>0.3481064777689809</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3571367616083476</v>
+        <v>0.3570252012447036</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2607658379708677</v>
+        <v>0.2614886706270029</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.228104713044734</v>
+        <v>0.2253697220056173</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2874185418189831</v>
+        <v>0.2880252576733786</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3088259898842863</v>
+        <v>0.3095114141089468</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2186698010708923</v>
+        <v>0.2179346533158032</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1947665904908665</v>
+        <v>0.1978668059648963</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.236361457824759</v>
+        <v>0.2402873248313475</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2177037581446855</v>
+        <v>0.2188866124309669</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2220200904860554</v>
+        <v>0.2212679566294265</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1750982687508711</v>
+        <v>0.176322982781242</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3069881594746017</v>
+        <v>0.299517627971167</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2941008341273047</v>
+        <v>0.2945438682829354</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2386700801912232</v>
+        <v>0.2388888552879286</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2616278908570161</v>
+        <v>0.2616806787864995</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.28061657529782</v>
+        <v>0.2809374292333244</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2667668960994242</v>
+        <v>0.2633527776139499</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.23981890819381</v>
+        <v>0.2404807129735669</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2273519571591397</v>
+        <v>0.225639141627028</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3080250590160105</v>
+        <v>0.3124613939558539</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2887043488117184</v>
+        <v>0.2875345657171686</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2858187797798329</v>
+        <v>0.2882163283496831</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2404371322149941</v>
+        <v>0.2397348058056006</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.373988686844496</v>
+        <v>0.3717232280874855</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3623946232652438</v>
+        <v>0.3654570650359372</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3056855836640519</v>
+        <v>0.3035297609641141</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3198776430726599</v>
+        <v>0.3206956062356568</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3292612217180656</v>
+        <v>0.3300504023387462</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3162887735460695</v>
+        <v>0.3138381677779712</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2847710344598243</v>
+        <v>0.2850680105605177</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2707960968520652</v>
+        <v>0.2705819526400913</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1755418425954409</v>
+        <v>0.174223824908987</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2315811159819411</v>
+        <v>0.2287827670444969</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1581982782294105</v>
+        <v>0.1586946222298434</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1164922223320961</v>
+        <v>0.1152679564256838</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.222883915455357</v>
+        <v>0.2218812989773803</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3086211108945384</v>
+        <v>0.3060028722991895</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1985241697933541</v>
+        <v>0.1987528965530009</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1493964056858843</v>
+        <v>0.1504976477109505</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.209460541824561</v>
+        <v>0.2097199001144922</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2788975557027831</v>
+        <v>0.2792974788725697</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1864356735333069</v>
+        <v>0.1865077557915934</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1406198487194789</v>
+        <v>0.1409686455945309</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2252972823049803</v>
+        <v>0.2243388682667342</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2920242732580384</v>
+        <v>0.2881496513029748</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2085160855422038</v>
+        <v>0.2099318977100487</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1640958253291541</v>
+        <v>0.1608465086172007</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2757947009448992</v>
+        <v>0.2761168092242025</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3707019263764652</v>
+        <v>0.3654487039150513</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2551437108556558</v>
+        <v>0.2531476880552594</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1892224587259206</v>
+        <v>0.1892740347990015</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2446021059149882</v>
+        <v>0.2443141300835042</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3196073668702033</v>
+        <v>0.321627920431417</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2235173975632921</v>
+        <v>0.2231418242920645</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1706236396569717</v>
+        <v>0.1710652350719542</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2209054684831939</v>
+        <v>0.2191141791591646</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2370380297271263</v>
+        <v>0.2392399992358359</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1687439895410556</v>
+        <v>0.1684329343424488</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1342447024746851</v>
+        <v>0.1332550997976604</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2924675709876742</v>
+        <v>0.2935226107439725</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3143281217290033</v>
+        <v>0.3146055158208376</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2157015252801542</v>
+        <v>0.217082083715074</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1892294598408788</v>
+        <v>0.1886639660748994</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2613607796828196</v>
+        <v>0.2613936706478213</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2815326896685631</v>
+        <v>0.2815125768653552</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1968977150083683</v>
+        <v>0.1967861642297065</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1668896754331169</v>
+        <v>0.1670549882563795</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2501282406842695</v>
+        <v>0.2502181726111911</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2689511661539403</v>
+        <v>0.2687936642030714</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1965631498631145</v>
+        <v>0.1957649811592314</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1626605165857238</v>
+        <v>0.1615861505323511</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3248768697327278</v>
+        <v>0.324790131369305</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3464724725503265</v>
+        <v>0.3473887387000231</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2441419355532367</v>
+        <v>0.2448701180884446</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.213182609297781</v>
+        <v>0.2126647755040108</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2831256636917109</v>
+        <v>0.2833248280815198</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3030359294919824</v>
+        <v>0.3036487208804837</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2161339542775668</v>
+        <v>0.2161133260893609</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1846186326104662</v>
+        <v>0.1850787027935939</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>156330</v>
+        <v>158637</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>156328</v>
+        <v>154439</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>70070</v>
+        <v>70410</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>43577</v>
+        <v>44526</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>226325</v>
+        <v>225372</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>205107</v>
+        <v>206537</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>101506</v>
+        <v>101245</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>93126</v>
+        <v>94663</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>394855</v>
+        <v>397865</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>377033</v>
+        <v>374578</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>183380</v>
+        <v>181939</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>144755</v>
+        <v>145689</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>204952</v>
+        <v>204216</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>202650</v>
+        <v>203876</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>106524</v>
+        <v>104816</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>82217</v>
+        <v>84045</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>274730</v>
+        <v>275503</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>254264</v>
+        <v>256597</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>142373</v>
+        <v>141417</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>131481</v>
+        <v>129511</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>460805</v>
+        <v>467024</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>443203</v>
+        <v>441853</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>236921</v>
+        <v>235702</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>197134</v>
+        <v>199491</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>183349</v>
+        <v>186453</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>226342</v>
+        <v>227953</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>145535</v>
+        <v>144827</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>133763</v>
+        <v>131717</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>274826</v>
+        <v>278259</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>306182</v>
+        <v>305760</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>214777</v>
+        <v>218901</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>195327</v>
+        <v>192761</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>470660</v>
+        <v>476079</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>546244</v>
+        <v>551729</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>377265</v>
+        <v>375344</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>339052</v>
+        <v>344352</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>239507</v>
+        <v>236654</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>285216</v>
+        <v>283108</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>193637</v>
+        <v>194557</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>188004</v>
+        <v>193244</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>335529</v>
+        <v>337104</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>367495</v>
+        <v>367380</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>271290</v>
+        <v>272042</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>243614</v>
+        <v>240693</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>554489</v>
+        <v>555659</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>631824</v>
+        <v>633227</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>450834</v>
+        <v>449318</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>411597</v>
+        <v>418149</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>159781</v>
+        <v>162434</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>164937</v>
+        <v>165834</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>167176</v>
+        <v>166610</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>140231</v>
+        <v>141212</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>209931</v>
+        <v>204822</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>228568</v>
+        <v>228912</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>187124</v>
+        <v>187295</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>211874</v>
+        <v>211917</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>381594</v>
+        <v>382031</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>409433</v>
+        <v>404193</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>368603</v>
+        <v>369620</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>366196</v>
+        <v>363437</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>208225</v>
+        <v>211224</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>218729</v>
+        <v>217843</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>215215</v>
+        <v>217020</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>192560</v>
+        <v>191997</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>255749</v>
+        <v>254200</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>281644</v>
+        <v>284024</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>239665</v>
+        <v>237975</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>259046</v>
+        <v>259709</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>447743</v>
+        <v>448816</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>485439</v>
+        <v>481678</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>437694</v>
+        <v>438151</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>436172</v>
+        <v>435827</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>164533</v>
+        <v>163298</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>219478</v>
+        <v>216826</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>148136</v>
+        <v>148600</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>114809</v>
+        <v>113603</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>231065</v>
+        <v>230025</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>324639</v>
+        <v>321885</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>206243</v>
+        <v>206481</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>166501</v>
+        <v>167728</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>413473</v>
+        <v>413985</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>557695</v>
+        <v>558494</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>368262</v>
+        <v>368404</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>295308</v>
+        <v>296040</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>211168</v>
+        <v>210270</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>276763</v>
+        <v>273091</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>195253</v>
+        <v>196579</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>161725</v>
+        <v>158523</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>285917</v>
+        <v>286251</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>389942</v>
+        <v>384416</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>265064</v>
+        <v>262991</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>210886</v>
+        <v>210944</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>482842</v>
+        <v>482274</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>639100</v>
+        <v>643140</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>441508</v>
+        <v>440766</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>358317</v>
+        <v>359244</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>721727</v>
+        <v>715875</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>811779</v>
+        <v>819320</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>571287</v>
+        <v>570234</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>472693</v>
+        <v>469208</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>987748</v>
+        <v>991311</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1117477</v>
+        <v>1118463</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>761738</v>
+        <v>766613</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>704891</v>
+        <v>702785</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1736591</v>
+        <v>1736810</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1965044</v>
+        <v>1964903</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1361935</v>
+        <v>1361163</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1209314</v>
+        <v>1210512</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>817202</v>
+        <v>817496</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>921071</v>
+        <v>920532</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>665469</v>
+        <v>662767</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>572748</v>
+        <v>568966</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1097203</v>
+        <v>1096910</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1231754</v>
+        <v>1235012</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>862173</v>
+        <v>864745</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>794118</v>
+        <v>792189</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1881206</v>
+        <v>1882529</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2115132</v>
+        <v>2119409</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1494991</v>
+        <v>1494849</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1337781</v>
+        <v>1341115</v>
       </c>
     </row>
     <row r="24">
